--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.42299023231765</v>
+        <v>1.625493333333333</v>
       </c>
       <c r="H2">
-        <v>1.42299023231765</v>
+        <v>4.87648</v>
       </c>
       <c r="I2">
-        <v>0.1338152778937103</v>
+        <v>0.1468796758507528</v>
       </c>
       <c r="J2">
-        <v>0.1338152778937103</v>
+        <v>0.1468796758507528</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.6723196357907</v>
+        <v>61.629167</v>
       </c>
       <c r="N2">
-        <v>29.6723196357907</v>
+        <v>184.887501</v>
       </c>
       <c r="O2">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="P2">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="Q2">
-        <v>42.22342101193738</v>
+        <v>100.1778000973867</v>
       </c>
       <c r="R2">
-        <v>42.22342101193738</v>
+        <v>901.60020087648</v>
       </c>
       <c r="S2">
-        <v>0.09811881234053266</v>
+        <v>0.1241488275651786</v>
       </c>
       <c r="T2">
-        <v>0.09811881234053266</v>
+        <v>0.1241488275651786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.42299023231765</v>
+        <v>1.625493333333333</v>
       </c>
       <c r="H3">
-        <v>1.42299023231765</v>
+        <v>4.87648</v>
       </c>
       <c r="I3">
-        <v>0.1338152778937103</v>
+        <v>0.1468796758507528</v>
       </c>
       <c r="J3">
-        <v>0.1338152778937103</v>
+        <v>0.1468796758507528</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.17020720208716</v>
+        <v>1.357683666666667</v>
       </c>
       <c r="N3">
-        <v>1.17020720208716</v>
+        <v>4.073051</v>
       </c>
       <c r="O3">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="P3">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="Q3">
-        <v>1.665193418357795</v>
+        <v>2.206905748942222</v>
       </c>
       <c r="R3">
-        <v>1.665193418357795</v>
+        <v>19.86215174048</v>
       </c>
       <c r="S3">
-        <v>0.003869577514345556</v>
+        <v>0.002734984807129704</v>
       </c>
       <c r="T3">
-        <v>0.003869577514345556</v>
+        <v>0.002734984807129705</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.42299023231765</v>
+        <v>1.625493333333333</v>
       </c>
       <c r="H4">
-        <v>1.42299023231765</v>
+        <v>4.87648</v>
       </c>
       <c r="I4">
-        <v>0.1338152778937103</v>
+        <v>0.1468796758507528</v>
       </c>
       <c r="J4">
-        <v>0.1338152778937103</v>
+        <v>0.1468796758507528</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.624837198631971</v>
+        <v>9.926218666666665</v>
       </c>
       <c r="N4">
-        <v>9.624837198631971</v>
+        <v>29.778656</v>
       </c>
       <c r="O4">
-        <v>0.2378419604980547</v>
+        <v>0.1361377151918736</v>
       </c>
       <c r="P4">
-        <v>0.2378419604980547</v>
+        <v>0.1361377151918736</v>
       </c>
       <c r="Q4">
-        <v>13.69604932130087</v>
+        <v>16.13500226787555</v>
       </c>
       <c r="R4">
-        <v>13.69604932130087</v>
+        <v>145.21502041088</v>
       </c>
       <c r="S4">
-        <v>0.03182688803883205</v>
+        <v>0.01999586347844449</v>
       </c>
       <c r="T4">
-        <v>0.03182688803883205</v>
+        <v>0.0199958634784445</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.98987008080702</v>
+        <v>5.041193333333333</v>
       </c>
       <c r="H5">
-        <v>4.98987008080702</v>
+        <v>15.12358</v>
       </c>
       <c r="I5">
-        <v>0.469237831962608</v>
+        <v>0.4555225343081337</v>
       </c>
       <c r="J5">
-        <v>0.469237831962608</v>
+        <v>0.4555225343081337</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.6723196357907</v>
+        <v>61.629167</v>
       </c>
       <c r="N5">
-        <v>29.6723196357907</v>
+        <v>184.887501</v>
       </c>
       <c r="O5">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="P5">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="Q5">
-        <v>148.0610199787747</v>
+        <v>310.6845458192867</v>
       </c>
       <c r="R5">
-        <v>148.0610199787747</v>
+        <v>2796.16091237358</v>
       </c>
       <c r="S5">
-        <v>0.3440642914778986</v>
+        <v>0.3850266433140674</v>
       </c>
       <c r="T5">
-        <v>0.3440642914778986</v>
+        <v>0.3850266433140674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.98987008080702</v>
+        <v>5.041193333333333</v>
       </c>
       <c r="H6">
-        <v>4.98987008080702</v>
+        <v>15.12358</v>
       </c>
       <c r="I6">
-        <v>0.469237831962608</v>
+        <v>0.4555225343081337</v>
       </c>
       <c r="J6">
-        <v>0.469237831962608</v>
+        <v>0.4555225343081337</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.17020720208716</v>
+        <v>1.357683666666667</v>
       </c>
       <c r="N6">
-        <v>1.17020720208716</v>
+        <v>4.073051</v>
       </c>
       <c r="O6">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="P6">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="Q6">
-        <v>5.839181906039614</v>
+        <v>6.844345849175554</v>
       </c>
       <c r="R6">
-        <v>5.839181906039614</v>
+        <v>61.59911264258</v>
       </c>
       <c r="S6">
-        <v>0.01356909459086594</v>
+        <v>0.008482093954945095</v>
       </c>
       <c r="T6">
-        <v>0.01356909459086594</v>
+        <v>0.008482093954945097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.98987008080702</v>
+        <v>5.041193333333333</v>
       </c>
       <c r="H7">
-        <v>4.98987008080702</v>
+        <v>15.12358</v>
       </c>
       <c r="I7">
-        <v>0.469237831962608</v>
+        <v>0.4555225343081337</v>
       </c>
       <c r="J7">
-        <v>0.469237831962608</v>
+        <v>0.4555225343081337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.624837198631971</v>
+        <v>9.926218666666665</v>
       </c>
       <c r="N7">
-        <v>9.624837198631971</v>
+        <v>29.778656</v>
       </c>
       <c r="O7">
-        <v>0.2378419604980547</v>
+        <v>0.1361377151918736</v>
       </c>
       <c r="P7">
-        <v>0.2378419604980547</v>
+        <v>0.1361377151918736</v>
       </c>
       <c r="Q7">
-        <v>48.02668717009213</v>
+        <v>50.03998736760888</v>
       </c>
       <c r="R7">
-        <v>48.02668717009213</v>
+        <v>450.35988630848</v>
       </c>
       <c r="S7">
-        <v>0.1116044458938435</v>
+        <v>0.06201379703912115</v>
       </c>
       <c r="T7">
-        <v>0.1116044458938435</v>
+        <v>0.06201379703912117</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.22112897954738</v>
+        <v>4.400149666666667</v>
       </c>
       <c r="H8">
-        <v>4.22112897954738</v>
+        <v>13.200449</v>
       </c>
       <c r="I8">
-        <v>0.3969468901436817</v>
+        <v>0.3975977898411136</v>
       </c>
       <c r="J8">
-        <v>0.3969468901436817</v>
+        <v>0.3975977898411136</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.6723196357907</v>
+        <v>61.629167</v>
       </c>
       <c r="N8">
-        <v>29.6723196357907</v>
+        <v>184.887501</v>
       </c>
       <c r="O8">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="P8">
-        <v>0.7332407321865642</v>
+        <v>0.8452417044501688</v>
       </c>
       <c r="Q8">
-        <v>125.2506883050289</v>
+        <v>271.1775586319943</v>
       </c>
       <c r="R8">
-        <v>125.2506883050289</v>
+        <v>2440.598027687949</v>
       </c>
       <c r="S8">
-        <v>0.2910576283681328</v>
+        <v>0.3360662335709229</v>
       </c>
       <c r="T8">
-        <v>0.2910576283681328</v>
+        <v>0.3360662335709229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.22112897954738</v>
+        <v>4.400149666666667</v>
       </c>
       <c r="H9">
-        <v>4.22112897954738</v>
+        <v>13.200449</v>
       </c>
       <c r="I9">
-        <v>0.3969468901436817</v>
+        <v>0.3975977898411136</v>
       </c>
       <c r="J9">
-        <v>0.3969468901436817</v>
+        <v>0.3975977898411136</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.17020720208716</v>
+        <v>1.357683666666667</v>
       </c>
       <c r="N9">
-        <v>1.17020720208716</v>
+        <v>4.073051</v>
       </c>
       <c r="O9">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="P9">
-        <v>0.0289173073153812</v>
+        <v>0.01862058035795759</v>
       </c>
       <c r="Q9">
-        <v>4.939595532805169</v>
+        <v>5.97401133332211</v>
       </c>
       <c r="R9">
-        <v>4.939595532805169</v>
+        <v>53.76610199989899</v>
       </c>
       <c r="S9">
-        <v>0.01147863521016971</v>
+        <v>0.007403501595882789</v>
       </c>
       <c r="T9">
-        <v>0.01147863521016971</v>
+        <v>0.007403501595882789</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.22112897954738</v>
+        <v>4.400149666666667</v>
       </c>
       <c r="H10">
-        <v>4.22112897954738</v>
+        <v>13.200449</v>
       </c>
       <c r="I10">
-        <v>0.3969468901436817</v>
+        <v>0.3975977898411136</v>
       </c>
       <c r="J10">
-        <v>0.3969468901436817</v>
+        <v>0.3975977898411136</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.624837198631971</v>
+        <v>9.926218666666665</v>
       </c>
       <c r="N10">
-        <v>9.624837198631971</v>
+        <v>29.778656</v>
       </c>
       <c r="O10">
-        <v>0.2378419604980547</v>
+        <v>0.1361377151918736</v>
       </c>
       <c r="P10">
-        <v>0.2378419604980547</v>
+        <v>0.1361377151918736</v>
       </c>
       <c r="Q10">
-        <v>40.62767922257104</v>
+        <v>43.67684775739377</v>
       </c>
       <c r="R10">
-        <v>40.62767922257104</v>
+        <v>393.091629816544</v>
       </c>
       <c r="S10">
-        <v>0.09441062656537921</v>
+        <v>0.05412805467430792</v>
       </c>
       <c r="T10">
-        <v>0.09441062656537921</v>
+        <v>0.05412805467430794</v>
       </c>
     </row>
   </sheetData>
